--- a/GAANT Chart.xlsx
+++ b/GAANT Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{A7196CB0-CDBB-2C4E-B9F0-DBA8EFD48733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{7606652F-DF33-7546-BB10-B6325A236982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>0%%</t>
+  </si>
+  <si>
+    <t>Reach Goals</t>
   </si>
 </sst>
 </file>
@@ -1713,11 +1716,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:HJ42"/>
+  <dimension ref="A1:HJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM34" sqref="AM34"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -3878,7 +3881,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H39" si="174">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H40" si="174">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -10334,19 +10337,14 @@
     <row r="36" spans="1:218" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="58"/>
       <c r="B36" s="83" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C36" s="78"/>
-      <c r="D36" s="37">
-        <v>0</v>
-      </c>
+      <c r="D36" s="37"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="17" t="str">
-        <f t="shared" si="174"/>
-        <v/>
-      </c>
+      <c r="H36" s="17"/>
       <c r="I36" s="44"/>
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
@@ -10561,7 +10559,7 @@
     <row r="37" spans="1:218" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="58"/>
       <c r="B37" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="37">
@@ -10786,14 +10784,16 @@
       <c r="HJ37" s="44"/>
     </row>
     <row r="38" spans="1:218" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A38" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="37">
+        <v>0</v>
+      </c>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17" t="str">
         <f t="shared" si="174"/>
@@ -11011,241 +11011,466 @@
       <c r="HJ38" s="44"/>
     </row>
     <row r="39" spans="1:218" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A39" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43" t="str">
+      <c r="A39" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="84"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17" t="str">
         <f t="shared" si="174"/>
         <v/>
       </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
-      <c r="AE39" s="46"/>
-      <c r="AF39" s="46"/>
-      <c r="AG39" s="46"/>
-      <c r="AH39" s="46"/>
-      <c r="AI39" s="46"/>
-      <c r="AJ39" s="46"/>
-      <c r="AK39" s="46"/>
-      <c r="AL39" s="46"/>
-      <c r="AM39" s="46"/>
-      <c r="AN39" s="46"/>
-      <c r="AO39" s="46"/>
-      <c r="AP39" s="46"/>
-      <c r="AQ39" s="46"/>
-      <c r="AR39" s="46"/>
-      <c r="AS39" s="46"/>
-      <c r="AT39" s="46"/>
-      <c r="AU39" s="46"/>
-      <c r="AV39" s="46"/>
-      <c r="AW39" s="46"/>
-      <c r="AX39" s="46"/>
-      <c r="AY39" s="46"/>
-      <c r="AZ39" s="46"/>
-      <c r="BA39" s="46"/>
-      <c r="BB39" s="46"/>
-      <c r="BC39" s="46"/>
-      <c r="BD39" s="46"/>
-      <c r="BE39" s="46"/>
-      <c r="BF39" s="46"/>
-      <c r="BG39" s="46"/>
-      <c r="BH39" s="46"/>
-      <c r="BI39" s="46"/>
-      <c r="BJ39" s="46"/>
-      <c r="BK39" s="46"/>
-      <c r="BL39" s="46"/>
-      <c r="BM39" s="46"/>
-      <c r="BN39" s="46"/>
-      <c r="BO39" s="46"/>
-      <c r="BP39" s="46"/>
-      <c r="BQ39" s="46"/>
-      <c r="BR39" s="46"/>
-      <c r="BS39" s="46"/>
-      <c r="BT39" s="46"/>
-      <c r="BU39" s="46"/>
-      <c r="BV39" s="46"/>
-      <c r="BW39" s="46"/>
-      <c r="BX39" s="46"/>
-      <c r="BY39" s="46"/>
-      <c r="BZ39" s="46"/>
-      <c r="CA39" s="46"/>
-      <c r="CB39" s="46"/>
-      <c r="CC39" s="46"/>
-      <c r="CD39" s="46"/>
-      <c r="CE39" s="46"/>
-      <c r="CF39" s="46"/>
-      <c r="CG39" s="46"/>
-      <c r="CH39" s="46"/>
-      <c r="CI39" s="46"/>
-      <c r="CJ39" s="46"/>
-      <c r="CK39" s="46"/>
-      <c r="CL39" s="46"/>
-      <c r="CM39" s="46"/>
-      <c r="CN39" s="46"/>
-      <c r="CO39" s="46"/>
-      <c r="CP39" s="46"/>
-      <c r="CQ39" s="46"/>
-      <c r="CR39" s="46"/>
-      <c r="CS39" s="46"/>
-      <c r="CT39" s="46"/>
-      <c r="CU39" s="46"/>
-      <c r="CV39" s="46"/>
-      <c r="CW39" s="46"/>
-      <c r="CX39" s="46"/>
-      <c r="CY39" s="46"/>
-      <c r="CZ39" s="46"/>
-      <c r="DA39" s="46"/>
-      <c r="DB39" s="46"/>
-      <c r="DC39" s="46"/>
-      <c r="DD39" s="46"/>
-      <c r="DE39" s="46"/>
-      <c r="DF39" s="46"/>
-      <c r="DG39" s="46"/>
-      <c r="DH39" s="46"/>
-      <c r="DI39" s="46"/>
-      <c r="DJ39" s="46"/>
-      <c r="DK39" s="46"/>
-      <c r="DL39" s="46"/>
-      <c r="DM39" s="46"/>
-      <c r="DN39" s="46"/>
-      <c r="DO39" s="46"/>
-      <c r="DP39" s="46"/>
-      <c r="DQ39" s="46"/>
-      <c r="DR39" s="46"/>
-      <c r="DS39" s="46"/>
-      <c r="DT39" s="46"/>
-      <c r="DU39" s="46"/>
-      <c r="DV39" s="46"/>
-      <c r="DW39" s="46"/>
-      <c r="DX39" s="46"/>
-      <c r="DY39" s="46"/>
-      <c r="DZ39" s="46"/>
-      <c r="EA39" s="46"/>
-      <c r="EB39" s="46"/>
-      <c r="EC39" s="46"/>
-      <c r="ED39" s="46"/>
-      <c r="EE39" s="46"/>
-      <c r="EF39" s="46"/>
-      <c r="EG39" s="46"/>
-      <c r="EH39" s="46"/>
-      <c r="EI39" s="46"/>
-      <c r="EJ39" s="46"/>
-      <c r="EK39" s="46"/>
-      <c r="EL39" s="46"/>
-      <c r="EM39" s="46"/>
-      <c r="EN39" s="46"/>
-      <c r="EO39" s="46"/>
-      <c r="EP39" s="46"/>
-      <c r="EQ39" s="46"/>
-      <c r="ER39" s="46"/>
-      <c r="ES39" s="46"/>
-      <c r="ET39" s="46"/>
-      <c r="EU39" s="46"/>
-      <c r="EV39" s="46"/>
-      <c r="EW39" s="46"/>
-      <c r="EX39" s="46"/>
-      <c r="EY39" s="46"/>
-      <c r="EZ39" s="46"/>
-      <c r="FA39" s="46"/>
-      <c r="FB39" s="46"/>
-      <c r="FC39" s="46"/>
-      <c r="FD39" s="46"/>
-      <c r="FE39" s="46"/>
-      <c r="FF39" s="46"/>
-      <c r="FG39" s="46"/>
-      <c r="FH39" s="46"/>
-      <c r="FI39" s="46"/>
-      <c r="FJ39" s="46"/>
-      <c r="FK39" s="46"/>
-      <c r="FL39" s="46"/>
-      <c r="FM39" s="46"/>
-      <c r="FN39" s="46"/>
-      <c r="FO39" s="46"/>
-      <c r="FP39" s="46"/>
-      <c r="FQ39" s="46"/>
-      <c r="FR39" s="46"/>
-      <c r="FS39" s="46"/>
-      <c r="FT39" s="46"/>
-      <c r="FU39" s="46"/>
-      <c r="FV39" s="46"/>
-      <c r="FW39" s="46"/>
-      <c r="FX39" s="46"/>
-      <c r="FY39" s="46"/>
-      <c r="FZ39" s="46"/>
-      <c r="GA39" s="46"/>
-      <c r="GB39" s="46"/>
-      <c r="GC39" s="46"/>
-      <c r="GD39" s="46"/>
-      <c r="GE39" s="46"/>
-      <c r="GF39" s="46"/>
-      <c r="GG39" s="46"/>
-      <c r="GH39" s="46"/>
-      <c r="GI39" s="46"/>
-      <c r="GJ39" s="46"/>
-      <c r="GK39" s="46"/>
-      <c r="GL39" s="46"/>
-      <c r="GM39" s="46"/>
-      <c r="GN39" s="46"/>
-      <c r="GO39" s="46"/>
-      <c r="GP39" s="46"/>
-      <c r="GQ39" s="46"/>
-      <c r="GR39" s="46"/>
-      <c r="GS39" s="46"/>
-      <c r="GT39" s="46"/>
-      <c r="GU39" s="46"/>
-      <c r="GV39" s="46"/>
-      <c r="GW39" s="46"/>
-      <c r="GX39" s="46"/>
-      <c r="GY39" s="46"/>
-      <c r="GZ39" s="46"/>
-      <c r="HA39" s="46"/>
-      <c r="HB39" s="46"/>
-      <c r="HC39" s="46"/>
-      <c r="HD39" s="46"/>
-      <c r="HE39" s="46"/>
-      <c r="HF39" s="46"/>
-      <c r="HG39" s="46"/>
-      <c r="HH39" s="46"/>
-      <c r="HI39" s="46"/>
-      <c r="HJ39" s="46"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="44"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
+      <c r="AP39" s="44"/>
+      <c r="AQ39" s="44"/>
+      <c r="AR39" s="44"/>
+      <c r="AS39" s="44"/>
+      <c r="AT39" s="44"/>
+      <c r="AU39" s="44"/>
+      <c r="AV39" s="44"/>
+      <c r="AW39" s="44"/>
+      <c r="AX39" s="44"/>
+      <c r="AY39" s="44"/>
+      <c r="AZ39" s="44"/>
+      <c r="BA39" s="44"/>
+      <c r="BB39" s="44"/>
+      <c r="BC39" s="44"/>
+      <c r="BD39" s="44"/>
+      <c r="BE39" s="44"/>
+      <c r="BF39" s="44"/>
+      <c r="BG39" s="44"/>
+      <c r="BH39" s="44"/>
+      <c r="BI39" s="44"/>
+      <c r="BJ39" s="44"/>
+      <c r="BK39" s="44"/>
+      <c r="BL39" s="44"/>
+      <c r="BM39" s="44"/>
+      <c r="BN39" s="44"/>
+      <c r="BO39" s="44"/>
+      <c r="BP39" s="44"/>
+      <c r="BQ39" s="44"/>
+      <c r="BR39" s="44"/>
+      <c r="BS39" s="44"/>
+      <c r="BT39" s="44"/>
+      <c r="BU39" s="44"/>
+      <c r="BV39" s="44"/>
+      <c r="BW39" s="44"/>
+      <c r="BX39" s="44"/>
+      <c r="BY39" s="44"/>
+      <c r="BZ39" s="44"/>
+      <c r="CA39" s="44"/>
+      <c r="CB39" s="44"/>
+      <c r="CC39" s="44"/>
+      <c r="CD39" s="44"/>
+      <c r="CE39" s="44"/>
+      <c r="CF39" s="44"/>
+      <c r="CG39" s="44"/>
+      <c r="CH39" s="44"/>
+      <c r="CI39" s="44"/>
+      <c r="CJ39" s="44"/>
+      <c r="CK39" s="44"/>
+      <c r="CL39" s="44"/>
+      <c r="CM39" s="44"/>
+      <c r="CN39" s="44"/>
+      <c r="CO39" s="44"/>
+      <c r="CP39" s="44"/>
+      <c r="CQ39" s="44"/>
+      <c r="CR39" s="44"/>
+      <c r="CS39" s="44"/>
+      <c r="CT39" s="44"/>
+      <c r="CU39" s="44"/>
+      <c r="CV39" s="44"/>
+      <c r="CW39" s="44"/>
+      <c r="CX39" s="44"/>
+      <c r="CY39" s="44"/>
+      <c r="CZ39" s="44"/>
+      <c r="DA39" s="44"/>
+      <c r="DB39" s="44"/>
+      <c r="DC39" s="44"/>
+      <c r="DD39" s="44"/>
+      <c r="DE39" s="44"/>
+      <c r="DF39" s="44"/>
+      <c r="DG39" s="44"/>
+      <c r="DH39" s="44"/>
+      <c r="DI39" s="44"/>
+      <c r="DJ39" s="44"/>
+      <c r="DK39" s="44"/>
+      <c r="DL39" s="44"/>
+      <c r="DM39" s="44"/>
+      <c r="DN39" s="44"/>
+      <c r="DO39" s="44"/>
+      <c r="DP39" s="44"/>
+      <c r="DQ39" s="44"/>
+      <c r="DR39" s="44"/>
+      <c r="DS39" s="44"/>
+      <c r="DT39" s="44"/>
+      <c r="DU39" s="44"/>
+      <c r="DV39" s="44"/>
+      <c r="DW39" s="44"/>
+      <c r="DX39" s="44"/>
+      <c r="DY39" s="44"/>
+      <c r="DZ39" s="44"/>
+      <c r="EA39" s="44"/>
+      <c r="EB39" s="44"/>
+      <c r="EC39" s="44"/>
+      <c r="ED39" s="44"/>
+      <c r="EE39" s="44"/>
+      <c r="EF39" s="44"/>
+      <c r="EG39" s="44"/>
+      <c r="EH39" s="44"/>
+      <c r="EI39" s="44"/>
+      <c r="EJ39" s="44"/>
+      <c r="EK39" s="44"/>
+      <c r="EL39" s="44"/>
+      <c r="EM39" s="44"/>
+      <c r="EN39" s="44"/>
+      <c r="EO39" s="44"/>
+      <c r="EP39" s="44"/>
+      <c r="EQ39" s="44"/>
+      <c r="ER39" s="44"/>
+      <c r="ES39" s="44"/>
+      <c r="ET39" s="44"/>
+      <c r="EU39" s="44"/>
+      <c r="EV39" s="44"/>
+      <c r="EW39" s="44"/>
+      <c r="EX39" s="44"/>
+      <c r="EY39" s="44"/>
+      <c r="EZ39" s="44"/>
+      <c r="FA39" s="44"/>
+      <c r="FB39" s="44"/>
+      <c r="FC39" s="44"/>
+      <c r="FD39" s="44"/>
+      <c r="FE39" s="44"/>
+      <c r="FF39" s="44"/>
+      <c r="FG39" s="44"/>
+      <c r="FH39" s="44"/>
+      <c r="FI39" s="44"/>
+      <c r="FJ39" s="44"/>
+      <c r="FK39" s="44"/>
+      <c r="FL39" s="44"/>
+      <c r="FM39" s="44"/>
+      <c r="FN39" s="44"/>
+      <c r="FO39" s="44"/>
+      <c r="FP39" s="44"/>
+      <c r="FQ39" s="44"/>
+      <c r="FR39" s="44"/>
+      <c r="FS39" s="44"/>
+      <c r="FT39" s="44"/>
+      <c r="FU39" s="44"/>
+      <c r="FV39" s="44"/>
+      <c r="FW39" s="44"/>
+      <c r="FX39" s="44"/>
+      <c r="FY39" s="44"/>
+      <c r="FZ39" s="44"/>
+      <c r="GA39" s="44"/>
+      <c r="GB39" s="44"/>
+      <c r="GC39" s="44"/>
+      <c r="GD39" s="44"/>
+      <c r="GE39" s="44"/>
+      <c r="GF39" s="44"/>
+      <c r="GG39" s="44"/>
+      <c r="GH39" s="44"/>
+      <c r="GI39" s="44"/>
+      <c r="GJ39" s="44"/>
+      <c r="GK39" s="44"/>
+      <c r="GL39" s="44"/>
+      <c r="GM39" s="44"/>
+      <c r="GN39" s="44"/>
+      <c r="GO39" s="44"/>
+      <c r="GP39" s="44"/>
+      <c r="GQ39" s="44"/>
+      <c r="GR39" s="44"/>
+      <c r="GS39" s="44"/>
+      <c r="GT39" s="44"/>
+      <c r="GU39" s="44"/>
+      <c r="GV39" s="44"/>
+      <c r="GW39" s="44"/>
+      <c r="GX39" s="44"/>
+      <c r="GY39" s="44"/>
+      <c r="GZ39" s="44"/>
+      <c r="HA39" s="44"/>
+      <c r="HB39" s="44"/>
+      <c r="HC39" s="44"/>
+      <c r="HD39" s="44"/>
+      <c r="HE39" s="44"/>
+      <c r="HF39" s="44"/>
+      <c r="HG39" s="44"/>
+      <c r="HH39" s="44"/>
+      <c r="HI39" s="44"/>
+      <c r="HJ39" s="44"/>
     </row>
-    <row r="40" spans="1:218" ht="30" customHeight="1">
-      <c r="G40" s="6"/>
+    <row r="40" spans="1:218" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A40" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43" t="str">
+        <f t="shared" si="174"/>
+        <v/>
+      </c>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="46"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="46"/>
+      <c r="AH40" s="46"/>
+      <c r="AI40" s="46"/>
+      <c r="AJ40" s="46"/>
+      <c r="AK40" s="46"/>
+      <c r="AL40" s="46"/>
+      <c r="AM40" s="46"/>
+      <c r="AN40" s="46"/>
+      <c r="AO40" s="46"/>
+      <c r="AP40" s="46"/>
+      <c r="AQ40" s="46"/>
+      <c r="AR40" s="46"/>
+      <c r="AS40" s="46"/>
+      <c r="AT40" s="46"/>
+      <c r="AU40" s="46"/>
+      <c r="AV40" s="46"/>
+      <c r="AW40" s="46"/>
+      <c r="AX40" s="46"/>
+      <c r="AY40" s="46"/>
+      <c r="AZ40" s="46"/>
+      <c r="BA40" s="46"/>
+      <c r="BB40" s="46"/>
+      <c r="BC40" s="46"/>
+      <c r="BD40" s="46"/>
+      <c r="BE40" s="46"/>
+      <c r="BF40" s="46"/>
+      <c r="BG40" s="46"/>
+      <c r="BH40" s="46"/>
+      <c r="BI40" s="46"/>
+      <c r="BJ40" s="46"/>
+      <c r="BK40" s="46"/>
+      <c r="BL40" s="46"/>
+      <c r="BM40" s="46"/>
+      <c r="BN40" s="46"/>
+      <c r="BO40" s="46"/>
+      <c r="BP40" s="46"/>
+      <c r="BQ40" s="46"/>
+      <c r="BR40" s="46"/>
+      <c r="BS40" s="46"/>
+      <c r="BT40" s="46"/>
+      <c r="BU40" s="46"/>
+      <c r="BV40" s="46"/>
+      <c r="BW40" s="46"/>
+      <c r="BX40" s="46"/>
+      <c r="BY40" s="46"/>
+      <c r="BZ40" s="46"/>
+      <c r="CA40" s="46"/>
+      <c r="CB40" s="46"/>
+      <c r="CC40" s="46"/>
+      <c r="CD40" s="46"/>
+      <c r="CE40" s="46"/>
+      <c r="CF40" s="46"/>
+      <c r="CG40" s="46"/>
+      <c r="CH40" s="46"/>
+      <c r="CI40" s="46"/>
+      <c r="CJ40" s="46"/>
+      <c r="CK40" s="46"/>
+      <c r="CL40" s="46"/>
+      <c r="CM40" s="46"/>
+      <c r="CN40" s="46"/>
+      <c r="CO40" s="46"/>
+      <c r="CP40" s="46"/>
+      <c r="CQ40" s="46"/>
+      <c r="CR40" s="46"/>
+      <c r="CS40" s="46"/>
+      <c r="CT40" s="46"/>
+      <c r="CU40" s="46"/>
+      <c r="CV40" s="46"/>
+      <c r="CW40" s="46"/>
+      <c r="CX40" s="46"/>
+      <c r="CY40" s="46"/>
+      <c r="CZ40" s="46"/>
+      <c r="DA40" s="46"/>
+      <c r="DB40" s="46"/>
+      <c r="DC40" s="46"/>
+      <c r="DD40" s="46"/>
+      <c r="DE40" s="46"/>
+      <c r="DF40" s="46"/>
+      <c r="DG40" s="46"/>
+      <c r="DH40" s="46"/>
+      <c r="DI40" s="46"/>
+      <c r="DJ40" s="46"/>
+      <c r="DK40" s="46"/>
+      <c r="DL40" s="46"/>
+      <c r="DM40" s="46"/>
+      <c r="DN40" s="46"/>
+      <c r="DO40" s="46"/>
+      <c r="DP40" s="46"/>
+      <c r="DQ40" s="46"/>
+      <c r="DR40" s="46"/>
+      <c r="DS40" s="46"/>
+      <c r="DT40" s="46"/>
+      <c r="DU40" s="46"/>
+      <c r="DV40" s="46"/>
+      <c r="DW40" s="46"/>
+      <c r="DX40" s="46"/>
+      <c r="DY40" s="46"/>
+      <c r="DZ40" s="46"/>
+      <c r="EA40" s="46"/>
+      <c r="EB40" s="46"/>
+      <c r="EC40" s="46"/>
+      <c r="ED40" s="46"/>
+      <c r="EE40" s="46"/>
+      <c r="EF40" s="46"/>
+      <c r="EG40" s="46"/>
+      <c r="EH40" s="46"/>
+      <c r="EI40" s="46"/>
+      <c r="EJ40" s="46"/>
+      <c r="EK40" s="46"/>
+      <c r="EL40" s="46"/>
+      <c r="EM40" s="46"/>
+      <c r="EN40" s="46"/>
+      <c r="EO40" s="46"/>
+      <c r="EP40" s="46"/>
+      <c r="EQ40" s="46"/>
+      <c r="ER40" s="46"/>
+      <c r="ES40" s="46"/>
+      <c r="ET40" s="46"/>
+      <c r="EU40" s="46"/>
+      <c r="EV40" s="46"/>
+      <c r="EW40" s="46"/>
+      <c r="EX40" s="46"/>
+      <c r="EY40" s="46"/>
+      <c r="EZ40" s="46"/>
+      <c r="FA40" s="46"/>
+      <c r="FB40" s="46"/>
+      <c r="FC40" s="46"/>
+      <c r="FD40" s="46"/>
+      <c r="FE40" s="46"/>
+      <c r="FF40" s="46"/>
+      <c r="FG40" s="46"/>
+      <c r="FH40" s="46"/>
+      <c r="FI40" s="46"/>
+      <c r="FJ40" s="46"/>
+      <c r="FK40" s="46"/>
+      <c r="FL40" s="46"/>
+      <c r="FM40" s="46"/>
+      <c r="FN40" s="46"/>
+      <c r="FO40" s="46"/>
+      <c r="FP40" s="46"/>
+      <c r="FQ40" s="46"/>
+      <c r="FR40" s="46"/>
+      <c r="FS40" s="46"/>
+      <c r="FT40" s="46"/>
+      <c r="FU40" s="46"/>
+      <c r="FV40" s="46"/>
+      <c r="FW40" s="46"/>
+      <c r="FX40" s="46"/>
+      <c r="FY40" s="46"/>
+      <c r="FZ40" s="46"/>
+      <c r="GA40" s="46"/>
+      <c r="GB40" s="46"/>
+      <c r="GC40" s="46"/>
+      <c r="GD40" s="46"/>
+      <c r="GE40" s="46"/>
+      <c r="GF40" s="46"/>
+      <c r="GG40" s="46"/>
+      <c r="GH40" s="46"/>
+      <c r="GI40" s="46"/>
+      <c r="GJ40" s="46"/>
+      <c r="GK40" s="46"/>
+      <c r="GL40" s="46"/>
+      <c r="GM40" s="46"/>
+      <c r="GN40" s="46"/>
+      <c r="GO40" s="46"/>
+      <c r="GP40" s="46"/>
+      <c r="GQ40" s="46"/>
+      <c r="GR40" s="46"/>
+      <c r="GS40" s="46"/>
+      <c r="GT40" s="46"/>
+      <c r="GU40" s="46"/>
+      <c r="GV40" s="46"/>
+      <c r="GW40" s="46"/>
+      <c r="GX40" s="46"/>
+      <c r="GY40" s="46"/>
+      <c r="GZ40" s="46"/>
+      <c r="HA40" s="46"/>
+      <c r="HB40" s="46"/>
+      <c r="HC40" s="46"/>
+      <c r="HD40" s="46"/>
+      <c r="HE40" s="46"/>
+      <c r="HF40" s="46"/>
+      <c r="HG40" s="46"/>
+      <c r="HH40" s="46"/>
+      <c r="HI40" s="46"/>
+      <c r="HJ40" s="46"/>
     </row>
     <row r="41" spans="1:218" ht="30" customHeight="1">
-      <c r="C41" s="14"/>
-      <c r="F41" s="60"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:218" ht="30" customHeight="1">
-      <c r="C42" s="15"/>
+      <c r="C42" s="14"/>
+      <c r="F42" s="60"/>
+    </row>
+    <row r="43" spans="1:218" ht="30" customHeight="1">
+      <c r="C43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -11284,7 +11509,7 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D39">
+  <conditionalFormatting sqref="D7:D40">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11298,12 +11523,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM5:HJ6 I5:BL39 BM8:HJ39">
+  <conditionalFormatting sqref="BM5:HJ6 I5:BL40 BM8:HJ40">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL39 BM8:HJ39">
+  <conditionalFormatting sqref="I7:BL40 BM8:HJ40">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -11338,7 +11563,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D39</xm:sqref>
+          <xm:sqref>D7:D40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
